--- a/KiemTraTuVung/dic.xlsx
+++ b/KiemTraTuVung/dic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402A874-CB6A-4CB3-A3DF-C9351AEE88BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B402A874-CB6A-4CB3-A3DF-C9351AEE88BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3150B963-A760-44E2-84A5-4355B1D5B6CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="15375" windowHeight="7875" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>accidentally </t>
   </si>
@@ -56,148 +56,10 @@
     <t>vui vẻ</t>
   </si>
   <si>
-    <t>murmured</t>
-  </si>
-  <si>
-    <t>lầm bầm</t>
-  </si>
-  <si>
-    <t>scoffing </t>
-  </si>
-  <si>
-    <t>chê diễu</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>đĩa</t>
-  </si>
-  <si>
-    <t>serving </t>
-  </si>
-  <si>
-    <t>phục vụ</t>
-  </si>
-  <si>
-    <t>assumed </t>
-  </si>
-  <si>
-    <t>giả định</t>
-  </si>
-  <si>
-    <t>hesitant </t>
-  </si>
-  <si>
-    <t>do dự, ngần ngại</t>
-  </si>
-  <si>
-    <t>particular</t>
-  </si>
-  <si>
-    <t>cụ thể</t>
-  </si>
-  <si>
-    <t>stuck a fork</t>
-  </si>
-  <si>
-    <t>cắm cái dĩa</t>
-  </si>
-  <si>
-    <t>staring </t>
-  </si>
-  <si>
-    <t>nhìn chằm chằm</t>
-  </si>
-  <si>
-    <t>relieved </t>
-  </si>
-  <si>
-    <t>nhẹ nhõm, yên tâm</t>
-  </si>
-  <si>
-    <t>fucking zone</t>
-  </si>
-  <si>
-    <t>nơi chết tiệt</t>
-  </si>
-  <si>
-    <t>informed </t>
-  </si>
-  <si>
-    <t>thông báo</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>sau đó</t>
-  </si>
-  <si>
-    <t>dawdled </t>
-  </si>
-  <si>
-    <t>đi lêu lổng</t>
-  </si>
-  <si>
-    <t>lasted </t>
-  </si>
-  <si>
-    <t>kéo dài</t>
-  </si>
-  <si>
-    <t>worse </t>
-  </si>
-  <si>
-    <t>tệ</t>
-  </si>
-  <si>
-    <t>tripped </t>
-  </si>
-  <si>
-    <t>vấp</t>
-  </si>
-  <si>
-    <t>dumped </t>
-  </si>
-  <si>
-    <t>đổ đi, bỏ đi</t>
-  </si>
-  <si>
-    <t>picked it up</t>
-  </si>
-  <si>
-    <t>nhặt nó lên</t>
-  </si>
-  <si>
-    <t>sneak to</t>
-  </si>
-  <si>
-    <t>lẻn vào ….</t>
-  </si>
-  <si>
-    <t>messes</t>
-  </si>
-  <si>
-    <t>mớ hỗn độn</t>
-  </si>
-  <si>
-    <t>passed </t>
-  </si>
-  <si>
-    <t>qua, đi qua</t>
-  </si>
-  <si>
-    <t>expected </t>
-  </si>
-  <si>
-    <t>hi vọng</t>
-  </si>
-  <si>
-    <t>lounge </t>
-  </si>
-  <si>
-    <t>phòng chờ</t>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>xin chào</t>
   </si>
 </sst>
 </file>
@@ -238,14 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,198 +430,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -795,14 +461,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C78893B-8F93-4315-AD36-E5DC6FF01751}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
